--- a/new.xlsx
+++ b/new.xlsx
@@ -20,57 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="397">
-  <si>
-    <t xml:space="preserve">Vineet Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09hgl22bal006@klelawcollege.edu.in</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="384">
+  <si>
+    <t xml:space="preserve">Satyam Mangal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satyammangal@nlunagpur.ac.in</t>
   </si>
   <si>
     <t xml:space="preserve">pwd</t>
   </si>
   <si>
     <t xml:space="preserve">nil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samiksha Fulzele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samixafullzele@nlunagpur.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samiksha Fullzele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harsh Mankar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harshmankar@nlunagpur.ac.in </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srushti Joshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srushtijoshi@nlunagpur.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayush Srivastava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayushsrivastava@nlunagpur.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanishka Jain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanishkajain@nlunagpur.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satyam Mangal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">satyammangal@nlunagpur.ac.in</t>
   </si>
   <si>
     <t xml:space="preserve">Sanjana Sharma </t>
@@ -1488,10 +1449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J254"/>
+  <dimension ref="A2:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1510,13 +1471,13 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1555,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -1572,22 +1533,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
@@ -1604,22 +1565,22 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
@@ -1636,22 +1597,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -1668,22 +1629,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
@@ -1700,22 +1661,22 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>3</v>
@@ -1732,22 +1693,22 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>3</v>
@@ -1764,22 +1725,22 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
@@ -1796,22 +1757,22 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>3</v>
@@ -1828,22 +1789,22 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>3</v>
@@ -1860,22 +1821,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>3</v>
@@ -1892,22 +1853,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>3</v>
@@ -1924,22 +1885,22 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>3</v>
@@ -1956,22 +1917,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
@@ -1988,22 +1949,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>3</v>
@@ -2020,22 +1981,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
@@ -2052,22 +2013,22 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
@@ -2084,22 +2045,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>3</v>
@@ -2116,22 +2077,22 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>3</v>
@@ -2148,22 +2109,22 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>3</v>
@@ -2180,22 +2141,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>3</v>
@@ -2212,22 +2173,22 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>3</v>
@@ -2244,22 +2205,22 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>3</v>
@@ -2276,22 +2237,22 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>3</v>
@@ -2308,22 +2269,22 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>3</v>
@@ -2340,22 +2301,22 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>3</v>
@@ -2372,118 +2333,118 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>3</v>
@@ -2500,22 +2461,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>3</v>
@@ -2532,22 +2493,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>3</v>
@@ -2564,118 +2525,118 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>3</v>
@@ -2692,22 +2653,22 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>3</v>
@@ -2724,22 +2685,22 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>3</v>
@@ -2756,22 +2717,22 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>3</v>
@@ -2788,22 +2749,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>3</v>
@@ -2820,22 +2781,22 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>3</v>
@@ -2852,22 +2813,22 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>3</v>
@@ -2884,22 +2845,22 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>3</v>
@@ -2916,22 +2877,22 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>3</v>
@@ -2948,22 +2909,22 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>3</v>
@@ -2980,22 +2941,22 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>3</v>
@@ -3012,22 +2973,22 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>3</v>
@@ -3044,22 +3005,22 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>3</v>
@@ -3076,22 +3037,22 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>3</v>
@@ -3108,22 +3069,22 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>3</v>
@@ -3140,22 +3101,22 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>3</v>
@@ -3172,22 +3133,22 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>3</v>
@@ -3204,22 +3165,22 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>3</v>
@@ -3236,22 +3197,22 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>3</v>
@@ -3268,22 +3229,22 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>3</v>
@@ -3300,22 +3261,22 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>3</v>
@@ -3332,22 +3293,22 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>3</v>
@@ -3364,22 +3325,22 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>3</v>
@@ -3396,22 +3357,22 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>3</v>
@@ -3428,22 +3389,22 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>3</v>
@@ -3460,22 +3421,22 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>3</v>
@@ -3492,22 +3453,22 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>3</v>
@@ -3524,22 +3485,22 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>3</v>
@@ -3556,22 +3517,22 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>3</v>
@@ -3588,22 +3549,22 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>3</v>
@@ -3620,22 +3581,22 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>3</v>
@@ -3652,22 +3613,22 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>3</v>
@@ -3684,22 +3645,22 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>3</v>
@@ -3716,22 +3677,22 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>3</v>
@@ -3748,22 +3709,22 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>3</v>
@@ -3780,22 +3741,22 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>3</v>
@@ -3812,22 +3773,22 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>3</v>
@@ -3844,22 +3805,22 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>3</v>
@@ -3876,22 +3837,22 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>3</v>
@@ -3908,22 +3869,22 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>3</v>
@@ -3940,22 +3901,22 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>3</v>
@@ -3972,214 +3933,214 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J79" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="G80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="B81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="G81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="G82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J82" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="G83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="G84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J84" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>3</v>
@@ -4196,22 +4157,22 @@
     </row>
     <row r="86" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>3</v>
@@ -4228,22 +4189,22 @@
     </row>
     <row r="87" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>3</v>
@@ -4260,22 +4221,22 @@
     </row>
     <row r="88" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>3</v>
@@ -4292,22 +4253,22 @@
     </row>
     <row r="89" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>3</v>
@@ -4324,22 +4285,22 @@
     </row>
     <row r="90" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>3</v>
@@ -4356,246 +4317,246 @@
     </row>
     <row r="91" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="G92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J92" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="G93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="G94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="G95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="G96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J96" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="G97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J97" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>3</v>
@@ -4612,22 +4573,22 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>3</v>
@@ -4644,22 +4605,22 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>3</v>
@@ -4676,22 +4637,22 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>3</v>
@@ -4708,22 +4669,16 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>3</v>
@@ -4740,54 +4695,54 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="E104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J103" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>3</v>
@@ -4804,22 +4759,22 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>3</v>
@@ -4836,22 +4791,22 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>3</v>
@@ -4868,22 +4823,22 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>3</v>
@@ -4900,16 +4855,22 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>3</v>
@@ -4926,22 +4887,22 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>3</v>
@@ -4958,22 +4919,22 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>3</v>
@@ -4990,22 +4951,22 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>3</v>
@@ -5022,22 +4983,22 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>3</v>
@@ -5054,22 +5015,22 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>3</v>
@@ -5086,22 +5047,22 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>3</v>
@@ -5118,22 +5079,22 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>3</v>
@@ -5150,22 +5111,22 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>3</v>
@@ -5182,22 +5143,22 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>3</v>
@@ -5214,22 +5175,22 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>3</v>
@@ -5246,22 +5207,22 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>3</v>
@@ -5278,22 +5239,22 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>3</v>
@@ -5310,22 +5271,22 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>3</v>
@@ -5342,22 +5303,22 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>3</v>
@@ -5374,22 +5335,22 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>3</v>
@@ -5406,22 +5367,22 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>3</v>
@@ -5438,22 +5399,22 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>3</v>
@@ -5470,22 +5431,22 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>3</v>
@@ -5502,22 +5463,22 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>3</v>
@@ -5534,54 +5495,54 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="B129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J128" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>3</v>
@@ -5598,22 +5559,22 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>3</v>
@@ -5630,22 +5591,22 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>3</v>
@@ -5662,22 +5623,22 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>3</v>
@@ -5694,22 +5655,22 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>3</v>
@@ -5726,54 +5687,54 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J134" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J134" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>3</v>
@@ -5790,22 +5751,22 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>3</v>
@@ -5822,22 +5783,22 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>3</v>
@@ -5854,22 +5815,22 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>3</v>
@@ -5886,22 +5847,22 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>3</v>
@@ -5918,22 +5879,22 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>3</v>
@@ -5950,22 +5911,22 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>3</v>
@@ -5982,22 +5943,22 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>3</v>
@@ -6014,22 +5975,22 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>3</v>
@@ -6046,22 +6007,22 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>3</v>
@@ -6078,22 +6039,22 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>3</v>
@@ -6110,22 +6071,22 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>3</v>
@@ -6142,22 +6103,22 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>3</v>
@@ -6174,22 +6135,22 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>3</v>
@@ -6206,22 +6167,22 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>3</v>
@@ -6238,22 +6199,22 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>3</v>
@@ -6270,22 +6231,22 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>3</v>
@@ -6302,22 +6263,22 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>3</v>
@@ -6334,22 +6295,22 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>3</v>
@@ -6366,22 +6327,22 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>3</v>
@@ -6398,22 +6359,22 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>3</v>
@@ -6430,22 +6391,22 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>3</v>
@@ -6462,22 +6423,22 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>3</v>
@@ -6494,22 +6455,22 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>3</v>
@@ -6526,22 +6487,22 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>3</v>
@@ -6558,22 +6519,22 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>3</v>
@@ -6590,22 +6551,22 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>3</v>
@@ -6622,22 +6583,22 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>3</v>
@@ -6654,22 +6615,22 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>3</v>
@@ -6686,22 +6647,22 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>3</v>
@@ -6718,22 +6679,22 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>3</v>
@@ -6750,22 +6711,22 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>3</v>
@@ -6782,22 +6743,22 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>3</v>
@@ -6814,22 +6775,22 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>3</v>
@@ -6846,22 +6807,22 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>3</v>
@@ -6878,22 +6839,22 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>3</v>
@@ -6910,22 +6871,22 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>3</v>
@@ -6942,86 +6903,86 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="C172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J172" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="B173" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J172" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B173" s="2" t="s">
+      <c r="G173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J173" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="B174" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J173" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>3</v>
@@ -7038,54 +6999,54 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J175" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="B176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J175" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>3</v>
@@ -7102,22 +7063,22 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>3</v>
@@ -7134,86 +7095,86 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J178" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="B179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J178" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B179" s="2" t="s">
+      <c r="G179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J179" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="B180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J179" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>3</v>
@@ -7230,86 +7191,86 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J181" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="B182" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J181" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B182" s="2" t="s">
+      <c r="G182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J182" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="B183" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J182" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>3</v>
@@ -7326,86 +7287,86 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J184" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="B185" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J184" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B185" s="2" t="s">
+      <c r="G185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J185" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="B186" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J185" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>3</v>
@@ -7422,22 +7383,22 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>3</v>
@@ -7454,54 +7415,54 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J188" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="B189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J188" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>3</v>
@@ -7518,87 +7479,87 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J190" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="B191" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J190" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B191" s="2" t="s">
+      <c r="G191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J191" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="B192" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J191" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="G192" s="1" t="s">
         <v>3</v>
       </c>
@@ -7612,197 +7573,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J193" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J194" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="F194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J195" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="F195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J196" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="F196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J197" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="F197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J198" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
@@ -7829,401 +7634,371 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="F204" s="2"/>
+      <c r="A204" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="F205" s="2"/>
+      <c r="A205" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="F206" s="2"/>
+      <c r="A206" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="F207" s="2"/>
+      <c r="A207" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="F208" s="2"/>
+      <c r="A208" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="F209" s="2"/>
+      <c r="A209" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
